--- a/data/SF_S4.xlsx
+++ b/data/SF_S4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Documents\GitBit\estadistica-in1119\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Documents\GitHub\estadistica-in1119\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -88,12 +88,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -108,12 +114,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,12 +408,15 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="5"/>
+    <col min="7" max="7" width="9.140625" style="5"/>
+    <col min="14" max="14" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -412,7 +426,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -424,7 +438,7 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -445,7 +459,7 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -456,7 +470,7 @@
       <c r="B2" s="1">
         <v>241.18638115482199</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>231.3</v>
       </c>
       <c r="D2" s="1">
@@ -468,7 +482,7 @@
       <c r="F2" s="1">
         <v>242.005850020304</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="4">
         <v>284.592781281724</v>
       </c>
       <c r="H2" s="1">
@@ -489,7 +503,7 @@
       <c r="M2" s="1">
         <v>339.1</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="4">
         <v>366</v>
       </c>
     </row>
@@ -500,7 +514,7 @@
       <c r="B3" s="1">
         <v>233.22465282233401</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>236.40112660659901</v>
       </c>
       <c r="D3" s="1">
@@ -512,7 +526,7 @@
       <c r="F3" s="1">
         <v>233.57020180710799</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="4">
         <v>270.47722570050701</v>
       </c>
       <c r="H3" s="1">
@@ -533,7 +547,7 @@
       <c r="M3" s="1">
         <v>340.87771180456701</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="4">
         <v>367.15531934009903</v>
       </c>
     </row>
@@ -544,7 +558,7 @@
       <c r="B4" s="1">
         <v>242.71208511167401</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>228.27034840609099</v>
       </c>
       <c r="D4" s="1">
@@ -556,7 +570,7 @@
       <c r="F4" s="1">
         <v>244.397403857867</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <v>281.96351035025401</v>
       </c>
       <c r="H4" s="1">
@@ -577,7 +591,7 @@
       <c r="M4" s="1">
         <v>343.82509461674903</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="4">
         <v>369.24803235533</v>
       </c>
     </row>
@@ -588,7 +602,7 @@
       <c r="B5" s="1">
         <v>246.628086253806</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>224.88586328426399</v>
       </c>
       <c r="D5" s="1">
@@ -600,7 +614,7 @@
       <c r="F5" s="1">
         <v>243.05592384771501</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="4">
         <v>285.69950626395899</v>
       </c>
       <c r="H5" s="1">
@@ -621,7 +635,7 @@
       <c r="M5" s="1">
         <v>347.92082084771698</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="4">
         <v>369.86558918274199</v>
       </c>
     </row>
@@ -632,7 +646,7 @@
       <c r="B6" s="1">
         <v>227.53431335025499</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>224.492142337562</v>
       </c>
       <c r="D6" s="1">
@@ -644,7 +658,7 @@
       <c r="F6" s="1">
         <v>244.194931055837</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>288.80920924365603</v>
       </c>
       <c r="H6" s="1">
@@ -665,7 +679,7 @@
       <c r="M6" s="1">
         <v>342.290405271574</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="4">
         <v>377.22770009137002</v>
       </c>
     </row>
@@ -676,7 +690,7 @@
       <c r="B7" s="1">
         <v>243.59867873603901</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>231.227594177665</v>
       </c>
       <c r="D7" s="1">
@@ -688,7 +702,7 @@
       <c r="F7" s="1">
         <v>228.70450795685099</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>287.23898801776602</v>
       </c>
       <c r="H7" s="1">
@@ -709,7 +723,7 @@
       <c r="M7" s="1">
         <v>340</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="4">
         <v>373.10332149746301</v>
       </c>
     </row>
@@ -720,7 +734,7 @@
       <c r="B8" s="1">
         <v>236.936060796954</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>231.34986840609099</v>
       </c>
       <c r="D8" s="1">
@@ -732,7 +746,7 @@
       <c r="F8" s="1">
         <v>242.51069726903501</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <v>284.18199315228202</v>
       </c>
       <c r="H8" s="1">
@@ -753,7 +767,7 @@
       <c r="M8" s="1">
         <v>336.4</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="4">
         <v>359.1</v>
       </c>
     </row>
@@ -764,7 +778,7 @@
       <c r="B9" s="1">
         <v>233.50578969035399</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>230.7</v>
       </c>
       <c r="D9" s="1">
@@ -776,7 +790,7 @@
       <c r="F9" s="1">
         <v>242.264647713198</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <v>287.63183900253699</v>
       </c>
       <c r="H9" s="1">
@@ -797,7 +811,7 @@
       <c r="M9" s="1">
         <v>343.7</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="4">
         <v>352.30498546192899</v>
       </c>
     </row>
@@ -808,7 +822,7 @@
       <c r="B10" s="1">
         <v>242.99011909137101</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>232.46763876142001</v>
       </c>
       <c r="D10" s="1">
@@ -820,7 +834,7 @@
       <c r="F10" s="1">
         <v>246.19949073603999</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="4">
         <v>285.60917299492502</v>
       </c>
       <c r="H10" s="1">
@@ -841,7 +855,7 @@
       <c r="M10" s="1">
         <v>327.35113311167203</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="4">
         <v>360.09329216666498</v>
       </c>
     </row>
@@ -852,7 +866,7 @@
       <c r="B11" s="1">
         <v>244.67489817258999</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>230.571467989848</v>
       </c>
       <c r="D11" s="1">
@@ -864,7 +878,7 @@
       <c r="F11" s="1">
         <v>246.44157509137099</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="4">
         <v>284.768860860404</v>
       </c>
       <c r="H11" s="1">
@@ -885,7 +899,7 @@
       <c r="M11" s="1">
         <v>341.18135677411198</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="4">
         <v>375.86987659898102</v>
       </c>
     </row>
@@ -896,7 +910,7 @@
       <c r="B12" s="1">
         <v>240.3</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>232.9</v>
       </c>
       <c r="D12" s="1">
@@ -908,7 +922,7 @@
       <c r="F12" s="1">
         <v>238.4</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="4">
         <v>287.2</v>
       </c>
       <c r="H12" s="1">
@@ -929,7 +943,7 @@
       <c r="M12" s="1">
         <v>344.9</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="4">
         <v>357.1</v>
       </c>
     </row>
@@ -940,7 +954,7 @@
       <c r="B13" s="1">
         <v>240.8</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>236.3</v>
       </c>
       <c r="D13" s="1">
@@ -952,7 +966,7 @@
       <c r="F13" s="1">
         <v>237.3</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="4">
         <v>284.2</v>
       </c>
       <c r="H13" s="1">
@@ -973,7 +987,7 @@
       <c r="M13" s="1">
         <v>341.1</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="4">
         <v>380.9</v>
       </c>
     </row>
@@ -984,7 +998,7 @@
       <c r="B14" s="1">
         <v>232.5</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>232.9</v>
       </c>
       <c r="D14" s="1">
@@ -996,7 +1010,7 @@
       <c r="F14" s="1">
         <v>237.1</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="4">
         <v>280.8</v>
       </c>
       <c r="H14" s="1">
@@ -1017,7 +1031,7 @@
       <c r="M14" s="1">
         <v>327.60000000000002</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="4">
         <v>354.8</v>
       </c>
     </row>
@@ -1028,7 +1042,7 @@
       <c r="B15" s="1">
         <v>234</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="4">
         <v>229.2</v>
       </c>
       <c r="D15" s="1">
@@ -1040,7 +1054,7 @@
       <c r="F15" s="1">
         <v>250.1</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="4">
         <v>284.10000000000002</v>
       </c>
       <c r="H15" s="1">
@@ -1061,7 +1075,7 @@
       <c r="M15" s="1">
         <v>329.6</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="4">
         <v>375.4</v>
       </c>
     </row>
@@ -1072,7 +1086,7 @@
       <c r="B16" s="1">
         <v>237.3</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="4">
         <v>226.5</v>
       </c>
       <c r="D16" s="1">
@@ -1084,7 +1098,7 @@
       <c r="F16" s="1">
         <v>238.3</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="4">
         <v>289.89999999999998</v>
       </c>
       <c r="H16" s="1">
@@ -1105,7 +1119,7 @@
       <c r="M16" s="1">
         <v>340.9</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16" s="4">
         <v>375.9</v>
       </c>
     </row>
@@ -1116,7 +1130,7 @@
       <c r="B17" s="1">
         <v>233.5</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="4">
         <v>228.7</v>
       </c>
       <c r="D17" s="1">
@@ -1128,7 +1142,7 @@
       <c r="F17" s="1">
         <v>239.2</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="4">
         <v>286.2</v>
       </c>
       <c r="H17" s="1">
@@ -1149,7 +1163,7 @@
       <c r="M17" s="1">
         <v>327.7</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17" s="4">
         <v>380.2</v>
       </c>
     </row>
@@ -1160,7 +1174,7 @@
       <c r="B18" s="1">
         <v>235.7</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="4">
         <v>227.9</v>
       </c>
       <c r="D18" s="1">
@@ -1172,7 +1186,7 @@
       <c r="F18" s="1">
         <v>238.8</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="4">
         <v>273</v>
       </c>
       <c r="H18" s="1">
@@ -1193,7 +1207,7 @@
       <c r="M18" s="1">
         <v>332.3</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18" s="4">
         <v>377</v>
       </c>
     </row>
@@ -1204,7 +1218,7 @@
       <c r="B19" s="1">
         <v>245.1</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <v>232.7</v>
       </c>
       <c r="D19" s="1">
@@ -1216,7 +1230,7 @@
       <c r="F19" s="1">
         <v>239.2</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="4">
         <v>278.3</v>
       </c>
       <c r="H19" s="1">
@@ -1237,7 +1251,7 @@
       <c r="M19" s="1">
         <v>348.5</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19" s="4">
         <v>370.6</v>
       </c>
     </row>
@@ -1248,7 +1262,7 @@
       <c r="B20" s="1">
         <v>235.8</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="4">
         <v>233.3</v>
       </c>
       <c r="D20" s="1">
@@ -1260,7 +1274,7 @@
       <c r="F20" s="1">
         <v>233</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="4">
         <v>283</v>
       </c>
       <c r="H20" s="1">
@@ -1281,7 +1295,7 @@
       <c r="M20" s="1">
         <v>335.8</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20" s="4">
         <v>381.5</v>
       </c>
     </row>
@@ -1292,7 +1306,7 @@
       <c r="B21" s="1">
         <v>238</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="4">
         <v>241</v>
       </c>
       <c r="D21" s="1">
@@ -1304,7 +1318,7 @@
       <c r="F21" s="1">
         <v>243.8</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="4">
         <v>274.10000000000002</v>
       </c>
       <c r="H21" s="1">
@@ -1325,7 +1339,7 @@
       <c r="M21" s="1">
         <v>331.7</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21" s="4">
         <v>362.8</v>
       </c>
     </row>
@@ -1336,7 +1350,7 @@
       <c r="B22" s="1">
         <v>245.9</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="4">
         <v>228.9</v>
       </c>
       <c r="D22" s="1">
@@ -1348,7 +1362,7 @@
       <c r="F22" s="1">
         <v>249.4</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="4">
         <v>287.8</v>
       </c>
       <c r="H22" s="1">
@@ -1369,7 +1383,7 @@
       <c r="M22" s="1">
         <v>338.8</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N22" s="4">
         <v>365.7</v>
       </c>
     </row>
@@ -1380,7 +1394,7 @@
       <c r="B23" s="1">
         <v>240.4</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="4">
         <v>224.8</v>
       </c>
       <c r="D23" s="1">
@@ -1392,7 +1406,7 @@
       <c r="F23" s="1">
         <v>238.8</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="4">
         <v>282.5</v>
       </c>
       <c r="H23" s="1">
@@ -1413,7 +1427,7 @@
       <c r="M23" s="1">
         <v>333.6</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N23" s="4">
         <v>365.9</v>
       </c>
     </row>
@@ -1424,7 +1438,7 @@
       <c r="B24" s="1">
         <v>245.7</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="4">
         <v>235.7</v>
       </c>
       <c r="D24" s="1">
@@ -1436,7 +1450,7 @@
       <c r="F24" s="1">
         <v>242.1</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="4">
         <v>276.2</v>
       </c>
       <c r="H24" s="1">
@@ -1457,7 +1471,7 @@
       <c r="M24" s="1">
         <v>341</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N24" s="4">
         <v>361.3</v>
       </c>
     </row>
@@ -1468,7 +1482,7 @@
       <c r="B25" s="1">
         <v>246.6</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="4">
         <v>226.9</v>
       </c>
       <c r="D25" s="1">
@@ -1480,7 +1494,7 @@
       <c r="F25" s="1">
         <v>238.9</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="4">
         <v>283.39999999999998</v>
       </c>
       <c r="H25" s="1">
@@ -1501,7 +1515,7 @@
       <c r="M25" s="1">
         <v>346.1</v>
       </c>
-      <c r="N25" s="1">
+      <c r="N25" s="4">
         <v>374</v>
       </c>
     </row>
@@ -1512,7 +1526,7 @@
       <c r="B26" s="1">
         <v>235</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="4">
         <v>229.6</v>
       </c>
       <c r="D26" s="1">
@@ -1524,7 +1538,7 @@
       <c r="F26" s="1">
         <v>242.1</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="4">
         <v>287.39999999999998</v>
       </c>
       <c r="H26" s="1">
@@ -1545,7 +1559,7 @@
       <c r="M26" s="1">
         <v>347</v>
       </c>
-      <c r="N26" s="1">
+      <c r="N26" s="4">
         <v>338.2</v>
       </c>
     </row>
@@ -1556,7 +1570,7 @@
       <c r="B27" s="1">
         <v>242</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="4">
         <v>225</v>
       </c>
       <c r="D27" s="1">
@@ -1568,7 +1582,7 @@
       <c r="F27" s="1">
         <v>240.1</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="4">
         <v>288.60000000000002</v>
       </c>
       <c r="H27" s="1">
@@ -1589,7 +1603,7 @@
       <c r="M27" s="1">
         <v>328.5</v>
       </c>
-      <c r="N27" s="1">
+      <c r="N27" s="4">
         <v>359.9</v>
       </c>
     </row>
@@ -1600,7 +1614,7 @@
       <c r="B28" s="1">
         <v>235.4</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="4">
         <v>232.4</v>
       </c>
       <c r="D28" s="1">
@@ -1612,7 +1626,7 @@
       <c r="F28" s="1">
         <v>243.1</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="4">
         <v>283.8</v>
       </c>
       <c r="H28" s="1">
@@ -1633,7 +1647,7 @@
       <c r="M28" s="1">
         <v>352.7</v>
       </c>
-      <c r="N28" s="1">
+      <c r="N28" s="4">
         <v>369.4</v>
       </c>
     </row>
@@ -1644,7 +1658,7 @@
       <c r="B29" s="1">
         <v>246.6</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="4">
         <v>228.8</v>
       </c>
       <c r="D29" s="1">
@@ -1656,7 +1670,7 @@
       <c r="F29" s="1">
         <v>236.9</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="4">
         <v>287.3</v>
       </c>
       <c r="H29" s="1">
@@ -1677,7 +1691,7 @@
       <c r="M29" s="1">
         <v>355.3</v>
       </c>
-      <c r="N29" s="1">
+      <c r="N29" s="4">
         <v>365.9</v>
       </c>
     </row>
@@ -1688,7 +1702,7 @@
       <c r="B30" s="1">
         <v>231.7</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="4">
         <v>225.5</v>
       </c>
       <c r="D30" s="1">
@@ -1700,7 +1714,7 @@
       <c r="F30" s="1">
         <v>239.6</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="4">
         <v>276</v>
       </c>
       <c r="H30" s="1">
@@ -1721,7 +1735,7 @@
       <c r="M30" s="1">
         <v>336.2</v>
       </c>
-      <c r="N30" s="1">
+      <c r="N30" s="4">
         <v>373.8</v>
       </c>
     </row>
@@ -1732,7 +1746,7 @@
       <c r="B31" s="1">
         <v>243.6</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="4">
         <v>233.8</v>
       </c>
       <c r="D31" s="1">
@@ -1744,7 +1758,7 @@
       <c r="F31" s="1">
         <v>248.3</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="4">
         <v>284.39999999999998</v>
       </c>
       <c r="H31" s="1">
@@ -1765,7 +1779,7 @@
       <c r="M31" s="1">
         <v>334.9</v>
       </c>
-      <c r="N31" s="1">
+      <c r="N31" s="4">
         <v>360.9</v>
       </c>
     </row>
